--- a/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
+++ b/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/automated/results/annotated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4793C0-F01F-6040-9618-40ACF72BE4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF2AF34-A74C-41F3-9966-692C4E023AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29740" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -425,7 +425,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -484,7 +484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -540,7 +540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -596,7 +596,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -652,7 +652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -708,7 +708,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -764,7 +764,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -820,7 +820,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -876,7 +876,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -932,7 +932,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -988,7 +988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1044,7 +1044,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1100,7 +1100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1156,7 +1156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1212,7 +1212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1268,7 +1268,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1324,7 +1324,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1380,7 +1380,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1436,7 +1436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1492,7 +1492,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1548,7 +1548,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1604,7 +1604,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1660,7 +1660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1716,7 +1716,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1772,7 +1772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1828,7 +1828,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1884,7 +1884,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1940,7 +1940,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1996,7 +1996,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2822,7 +2822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173541055"/>
@@ -2881,7 +2881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173927359"/>
@@ -2923,7 +2923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2960,7 +2960,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2990,7 +2990,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3009,6 +3009,216 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3019,7 +3229,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3049,7 +3271,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3064,7 +3286,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3075,7 +3297,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3105,7 +3339,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3120,7 +3354,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3131,7 +3365,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3161,7 +3407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3176,7 +3422,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3187,7 +3433,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3217,7 +3475,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3232,7 +3490,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3243,7 +3501,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3273,7 +3543,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3288,7 +3558,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3299,7 +3569,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3329,7 +3611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3344,7 +3626,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="6"/>
+        <c:idx val="20"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3355,7 +3637,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3385,791 +3683,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4995,7 +4509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173541055"/>
@@ -5054,7 +4568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="173927359"/>
@@ -5096,7 +4610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5133,7 +4647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7095,7 +6609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69CB1FE4-4109-3242-93DC-BAC9ADA01BCC}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69CB1FE4-4109-3242-93DC-BAC9ADA01BCC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7302,7 +6816,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D893C3A4-F516-6149-B71F-46937A73BD16}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D893C3A4-F516-6149-B71F-46937A73BD16}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7763,7 +7277,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 5">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7771,34 +7285,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="0C8066"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="002328"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="E3DAD8"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFD700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="BC0436"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="FF9E00"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="801A99"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -8047,30 +7561,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEACB7B8-3777-FD4E-9622-DF7150E918D8}">
   <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="144" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -8078,7 +7592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -8107,7 +7621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -8136,7 +7650,7 @@
         <v>5.2744496603506136E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -8165,7 +7679,7 @@
         <v>2.0546043051758799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -8194,7 +7708,7 @@
         <v>0.1654431838986489</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -8223,7 +7737,7 @@
         <v>0.12936260643292963</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -8252,7 +7766,7 @@
         <v>0.34419029927818789</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -8281,7 +7795,7 @@
         <v>2.147876122351712E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -8310,7 +7824,7 @@
         <v>6.2882984914771151E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -8339,7 +7853,7 @@
         <v>8.653098844776147E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -8368,7 +7882,7 @@
         <v>0.32136680835935882</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8397,7 +7911,7 @@
         <v>0.13474286580142167</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -8426,7 +7940,7 @@
         <v>1.3392890380118616</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>100</v>
       </c>
@@ -8442,21 +7956,21 @@
   <dimension ref="A3:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
@@ -8464,7 +7978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -8493,7 +8007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -8522,7 +8036,7 @@
         <v>3304.3299227278808</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -8551,7 +8065,7 @@
         <v>3185.6549221126934</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -8580,7 +8094,7 @@
         <v>2262.3517255682659</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -8609,7 +8123,7 @@
         <v>3516.2548387769803</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -8638,7 +8152,7 @@
         <v>2051.9488865820827</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -8667,7 +8181,7 @@
         <v>3648.6845406327247</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -8696,7 +8210,7 @@
         <v>3568.9054609175578</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -8725,7 +8239,7 @@
         <v>3256.2818360228748</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -8754,7 +8268,7 @@
         <v>1923.1942292917449</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8783,7 +8297,7 @@
         <v>3569.3194973029513</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -8826,17 +8340,17 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -8862,7 +8376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -8888,7 +8402,7 @@
         <v>483.26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8914,7 +8428,7 @@
         <v>479.87099999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8940,7 +8454,7 @@
         <v>515.76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8966,7 +8480,7 @@
         <v>545.69100000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8992,7 +8506,7 @@
         <v>524.72299999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -9018,7 +8532,7 @@
         <v>302.92700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -9044,7 +8558,7 @@
         <v>531.529</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -9070,7 +8584,7 @@
         <v>286.51100000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9096,7 +8610,7 @@
         <v>493.471</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9122,7 +8636,7 @@
         <v>339.97699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -9148,7 +8662,7 @@
         <v>462.52709586809311</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -9174,7 +8688,7 @@
         <v>450.19085761375641</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9200,7 +8714,7 @@
         <v>499.12392827861788</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -9226,7 +8740,7 @@
         <v>517.58408332474369</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -9252,7 +8766,7 @@
         <v>501.03647193346438</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -9278,7 +8792,7 @@
         <v>278.1333538243972</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -9304,7 +8818,7 @@
         <v>503.67681222148673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -9330,7 +8844,7 @@
         <v>261.93110094330609</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9356,7 +8870,7 @@
         <v>468.76986564439318</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -9382,7 +8896,7 @@
         <v>316.8216470201379</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -9408,7 +8922,7 @@
         <v>460.79937196166833</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -9434,7 +8948,7 @@
         <v>451.21590930276801</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -9460,7 +8974,7 @@
         <v>502.09017536566068</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -9486,7 +9000,7 @@
         <v>517.59093144684664</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -9512,7 +9026,7 @@
         <v>508.58764395979182</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -9538,7 +9052,7 @@
         <v>295.67031295278031</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -9564,7 +9078,7 @@
         <v>507.57755548858262</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9590,7 +9104,7 @@
         <v>276.36233761096139</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -9616,7 +9130,7 @@
         <v>469.29951362254042</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9642,7 +9156,7 @@
         <v>322.68447626074021</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -9668,7 +9182,7 @@
         <v>462.9465884902354</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -9694,7 +9208,7 @@
         <v>451.08216541669782</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9720,7 +9234,7 @@
         <v>502.01388566607147</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9746,7 +9260,7 @@
         <v>516.46661812856132</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9772,7 +9286,7 @@
         <v>509.56918152761523</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -9798,7 +9312,7 @@
         <v>295.62638223734967</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -9824,7 +9338,7 @@
         <v>507.41077483317969</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -9850,7 +9364,7 @@
         <v>276.63623791500868</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -9876,7 +9390,7 @@
         <v>465.82311700660642</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -9902,7 +9416,7 @@
         <v>321.42011672496352</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -9928,7 +9442,7 @@
         <v>461.93998722121307</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -9954,7 +9468,7 @@
         <v>451.0842568869395</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -9980,7 +9494,7 @@
         <v>500.63341136373361</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -10006,7 +9520,7 @@
         <v>517.55363240288648</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -10032,7 +9546,7 @@
         <v>508.08220876524979</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -10058,7 +9572,7 @@
         <v>295.17537605790022</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -10084,7 +9598,7 @@
         <v>506.56692110214982</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10110,7 +9624,7 @@
         <v>276.62956529761442</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10136,7 +9650,7 @@
         <v>469.17640122362099</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10162,7 +9676,7 @@
         <v>321.65504291410519</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10188,7 +9702,7 @@
         <v>462.16209875817839</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -10214,7 +9728,7 @@
         <v>451.08915418932389</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -10240,7 +9754,7 @@
         <v>496.21012007774362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -10266,7 +9780,7 @@
         <v>517.31178344579746</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -10292,7 +9806,7 @@
         <v>510.03896450496183</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -10318,7 +9832,7 @@
         <v>290.04830727570351</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -10344,7 +9858,7 @@
         <v>507.34290039343807</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -10370,7 +9884,7 @@
         <v>276.50488429839669</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -10396,7 +9910,7 @@
         <v>468.95031397761329</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -10422,7 +9936,7 @@
         <v>322.65396292229087</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -10448,7 +9962,7 @@
         <v>462.64669372348692</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -10474,7 +9988,7 @@
         <v>451.1215787032076</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -10500,7 +10014,7 @@
         <v>500.42331802515298</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -10526,7 +10040,7 @@
         <v>516.48649188388924</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -10552,7 +10066,7 @@
         <v>507.28202661186879</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -10578,7 +10092,7 @@
         <v>294.36815423395149</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -10604,7 +10118,7 @@
         <v>504.80149687872068</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -10630,7 +10144,7 @@
         <v>268.61910322645753</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -10656,7 +10170,7 @@
         <v>468.83971125310671</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>

--- a/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
+++ b/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\uploaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF2AF34-A74C-41F3-9966-692C4E023AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBEC6FB-88A2-4743-9933-724460B4AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2" sheetId="3" r:id="rId1"/>
@@ -411,6 +411,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF801A99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1790,7 +1795,7 @@
         <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="801A99"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2675,9 +2680,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="801A99"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3229,19 +3232,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3297,19 +3288,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3365,19 +3344,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3433,19 +3400,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3501,19 +3456,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3569,19 +3512,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3629,7 +3560,7 @@
         <c:idx val="20"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="801A99"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3637,23 +3568,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4362,9 +4277,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="801A99"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7561,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEACB7B8-3777-FD4E-9622-DF7150E918D8}">
   <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -7955,8 +7868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5024CD-C0A9-DE4E-9EB2-A3DDF72C3DBA}">
   <dimension ref="A3:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
+++ b/analysis/automated/results/annotated/probit_socioeconomic_modelevaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\uploaded\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/automated/results/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBEC6FB-88A2-4743-9933-724460B4AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15515F85-A381-5A47-86B9-79C6BADD836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -430,7 +430,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1665,7 +1665,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1721,7 +1721,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1777,7 +1777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1833,7 +1833,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1889,7 +1889,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1945,7 +1945,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2001,7 +2001,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2813,7 +2813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2900,7 +2900,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2914,7 +2914,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2993,7 +2993,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3262,7 +3262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3318,7 +3318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3374,7 +3374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3430,7 +3430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3486,7 +3486,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3542,7 +3542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3598,7 +3598,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4410,7 +4410,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4497,7 +4497,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4511,7 +4511,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6522,7 +6522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69CB1FE4-4109-3242-93DC-BAC9ADA01BCC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69CB1FE4-4109-3242-93DC-BAC9ADA01BCC}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6729,7 +6729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D893C3A4-F516-6149-B71F-46937A73BD16}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D893C3A4-F516-6149-B71F-46937A73BD16}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6837,7 +6837,7 @@
   <dataFields count="1">
     <dataField name="Sum of BIC" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="28">
+  <chartFormats count="42">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -7174,6 +7174,174 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7474,30 +7642,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEACB7B8-3777-FD4E-9622-DF7150E918D8}">
   <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A8" zoomScale="114" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -7505,7 +7673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -7534,7 +7702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -7563,7 +7731,7 @@
         <v>5.2744496603506136E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -7592,7 +7760,7 @@
         <v>2.0546043051758799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -7621,7 +7789,7 @@
         <v>0.1654431838986489</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -7650,7 +7818,7 @@
         <v>0.12936260643292963</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -7679,7 +7847,7 @@
         <v>0.34419029927818789</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -7708,7 +7876,7 @@
         <v>2.147876122351712E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -7737,7 +7905,7 @@
         <v>6.2882984914771151E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -7766,7 +7934,7 @@
         <v>8.653098844776147E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -7795,7 +7963,7 @@
         <v>0.32136680835935882</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -7824,7 +7992,7 @@
         <v>0.13474286580142167</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -7853,7 +8021,7 @@
         <v>1.3392890380118616</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>100</v>
       </c>
@@ -7868,22 +8036,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5024CD-C0A9-DE4E-9EB2-A3DDF72C3DBA}">
   <dimension ref="A3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
@@ -7891,7 +8059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -7920,7 +8088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -7949,7 +8117,7 @@
         <v>3304.3299227278808</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -7978,7 +8146,7 @@
         <v>3185.6549221126934</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -8007,7 +8175,7 @@
         <v>2262.3517255682659</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -8036,7 +8204,7 @@
         <v>3516.2548387769803</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -8065,7 +8233,7 @@
         <v>2051.9488865820827</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -8094,7 +8262,7 @@
         <v>3648.6845406327247</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -8123,7 +8291,7 @@
         <v>3568.9054609175578</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -8152,7 +8320,7 @@
         <v>3256.2818360228748</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -8181,7 +8349,7 @@
         <v>1923.1942292917449</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -8210,7 +8378,7 @@
         <v>3569.3194973029513</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -8253,17 +8421,17 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -8289,7 +8457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -8315,7 +8483,7 @@
         <v>483.26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8341,7 +8509,7 @@
         <v>479.87099999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8367,7 +8535,7 @@
         <v>515.76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8393,7 +8561,7 @@
         <v>545.69100000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8419,7 +8587,7 @@
         <v>524.72299999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8445,7 +8613,7 @@
         <v>302.92700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -8471,7 +8639,7 @@
         <v>531.529</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8497,7 +8665,7 @@
         <v>286.51100000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -8523,7 +8691,7 @@
         <v>493.471</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8549,7 +8717,7 @@
         <v>339.97699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -8575,7 +8743,7 @@
         <v>462.52709586809311</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -8601,7 +8769,7 @@
         <v>450.19085761375641</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -8627,7 +8795,7 @@
         <v>499.12392827861788</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8653,7 +8821,7 @@
         <v>517.58408332474369</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8679,7 +8847,7 @@
         <v>501.03647193346438</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -8705,7 +8873,7 @@
         <v>278.1333538243972</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -8731,7 +8899,7 @@
         <v>503.67681222148673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -8757,7 +8925,7 @@
         <v>261.93110094330609</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8783,7 +8951,7 @@
         <v>468.76986564439318</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -8809,7 +8977,7 @@
         <v>316.8216470201379</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -8835,7 +9003,7 @@
         <v>460.79937196166833</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -8861,7 +9029,7 @@
         <v>451.21590930276801</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -8887,7 +9055,7 @@
         <v>502.09017536566068</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -8913,7 +9081,7 @@
         <v>517.59093144684664</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -8939,7 +9107,7 @@
         <v>508.58764395979182</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -8965,7 +9133,7 @@
         <v>295.67031295278031</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -8991,7 +9159,7 @@
         <v>507.57755548858262</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9017,7 +9185,7 @@
         <v>276.36233761096139</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -9043,7 +9211,7 @@
         <v>469.29951362254042</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9069,7 +9237,7 @@
         <v>322.68447626074021</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -9095,7 +9263,7 @@
         <v>462.9465884902354</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -9121,7 +9289,7 @@
         <v>451.08216541669782</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9147,7 +9315,7 @@
         <v>502.01388566607147</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9173,7 +9341,7 @@
         <v>516.46661812856132</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9199,7 +9367,7 @@
         <v>509.56918152761523</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -9225,7 +9393,7 @@
         <v>295.62638223734967</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -9251,7 +9419,7 @@
         <v>507.41077483317969</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -9277,7 +9445,7 @@
         <v>276.63623791500868</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -9303,7 +9471,7 @@
         <v>465.82311700660642</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -9329,7 +9497,7 @@
         <v>321.42011672496352</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -9355,7 +9523,7 @@
         <v>461.93998722121307</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -9381,7 +9549,7 @@
         <v>451.0842568869395</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -9407,7 +9575,7 @@
         <v>500.63341136373361</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -9433,7 +9601,7 @@
         <v>517.55363240288648</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -9459,7 +9627,7 @@
         <v>508.08220876524979</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -9485,7 +9653,7 @@
         <v>295.17537605790022</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -9511,7 +9679,7 @@
         <v>506.56692110214982</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -9537,7 +9705,7 @@
         <v>276.62956529761442</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -9563,7 +9731,7 @@
         <v>469.17640122362099</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -9589,7 +9757,7 @@
         <v>321.65504291410519</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -9615,7 +9783,7 @@
         <v>462.16209875817839</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -9641,7 +9809,7 @@
         <v>451.08915418932389</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -9667,7 +9835,7 @@
         <v>496.21012007774362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -9693,7 +9861,7 @@
         <v>517.31178344579746</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -9719,7 +9887,7 @@
         <v>510.03896450496183</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -9745,7 +9913,7 @@
         <v>290.04830727570351</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -9771,7 +9939,7 @@
         <v>507.34290039343807</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -9797,7 +9965,7 @@
         <v>276.50488429839669</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -9823,7 +9991,7 @@
         <v>468.95031397761329</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -9849,7 +10017,7 @@
         <v>322.65396292229087</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -9875,7 +10043,7 @@
         <v>462.64669372348692</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -9901,7 +10069,7 @@
         <v>451.1215787032076</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -9927,7 +10095,7 @@
         <v>500.42331802515298</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -9953,7 +10121,7 @@
         <v>516.48649188388924</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -9979,7 +10147,7 @@
         <v>507.28202661186879</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -10005,7 +10173,7 @@
         <v>294.36815423395149</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -10031,7 +10199,7 @@
         <v>504.80149687872068</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -10057,7 +10225,7 @@
         <v>268.61910322645753</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -10083,7 +10251,7 @@
         <v>468.83971125310671</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
